--- a/public/modelo_importacao_cartao-credito.xlsx
+++ b/public/modelo_importacao_cartao-credito.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>banco</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Supermercados 123</t>
+  </si>
+  <si>
+    <t>sub_categoria</t>
+  </si>
+  <si>
+    <t>Supermercados</t>
   </si>
 </sst>
 </file>
@@ -447,19 +453,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="19.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="2" customWidth="1"/>
-    <col min="10" max="12" width="19.42578125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="9" width="19.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" style="2" customWidth="1"/>
+    <col min="11" max="13" width="19.42578125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,25 +485,28 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -514,24 +523,27 @@
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>600</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/public/modelo_importacao_cartao-credito.xlsx
+++ b/public/modelo_importacao_cartao-credito.xlsx
@@ -24,9 +24,6 @@
     <t>banco</t>
   </si>
   <si>
-    <t>nome_cartao</t>
-  </si>
-  <si>
     <t>fatura_mes</t>
   </si>
   <si>
@@ -81,13 +78,16 @@
     <t>Alimentação</t>
   </si>
   <si>
-    <t>Supermercados 123</t>
-  </si>
-  <si>
     <t>sub_categoria</t>
   </si>
   <si>
     <t>Supermercados</t>
+  </si>
+  <si>
+    <t>nome_cartao_credito</t>
+  </si>
+  <si>
+    <t>Supermercados ABC</t>
   </si>
 </sst>
 </file>
@@ -470,72 +470,72 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2">
+        <v>400</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2">
-        <v>600</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
